--- a/medicine/Enfance/Ostéochondrite/Ostéochondrite.xlsx
+++ b/medicine/Enfance/Ostéochondrite/Ostéochondrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéochondrite ou ostéochondrose est une anomalie de la croissance de l'os et du cartilage, qui touche les enfants (5 à 12 ans majoritairement) et les jeunes animaux. C'est un groupe de maladies de causes inconnues, caractérisées par l’interruption de la vascularisation du noyau d’ossification primaire ou secondaire des os concernés.
-À la naissance, les structures osseuses sont majoritairement constituées de cartilage, tissu très mou, qui va être remplacé progressivement par l’os. Ce remplacement débute dans des endroits spécifiques au sein de chaque os, appelés « noyaux d’ossification » et s’étend avec la croissance à l’ensemble de l’os. L’ostéochondrite est la conséquence d'une perturbation de vascularisation du noyau d’ossification primaire ou secondaire d’un os suivie d’une revascularisation avec reconstitution d’un tissu osseux de réparation. L'hérédité n'a pas été formellement éliminée[1], ni le rôle de microtraumatismes répétés en particulier lors de certaines activités sportives. 
+À la naissance, les structures osseuses sont majoritairement constituées de cartilage, tissu très mou, qui va être remplacé progressivement par l’os. Ce remplacement débute dans des endroits spécifiques au sein de chaque os, appelés « noyaux d’ossification » et s’étend avec la croissance à l’ensemble de l’os. L’ostéochondrite est la conséquence d'une perturbation de vascularisation du noyau d’ossification primaire ou secondaire d’un os suivie d’une revascularisation avec reconstitution d’un tissu osseux de réparation. L'hérédité n'a pas été formellement éliminée, ni le rôle de microtraumatismes répétés en particulier lors de certaines activités sportives. 
 Une fragilité constitutionnelle pourrait expliquer les localisations multiples chez un même enfant.[réf. nécessaire]
-Chez les animaux, l'ostéochondrose peut toucher le jeune cheval de sport ou de course et compromettre sa carrière[2].
+Chez les animaux, l'ostéochondrose peut toucher le jeune cheval de sport ou de course et compromettre sa carrière.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Localisation articulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme d'ostéochondrose regroupe de multiples entités définies en fonction de la topographie de l'atteinte :
 Atteinte des plateaux vertébraux : maladie de Scheuermann.
@@ -531,7 +545,7 @@
 Naviculaire : maladie de Köhler-Mouchet ;
 Tête du deuxième métatarsien  : maladie de Freiberg  ;
 Sésamoïdes de l'hallux : maladie de Renander.
-Chez le cheval, la maladie touche plus fréquemment les articulations des membres, genoux, boulets et jarrets[2].
+Chez le cheval, la maladie touche plus fréquemment les articulations des membres, genoux, boulets et jarrets.
 </t>
         </is>
       </c>
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'être humain, l'ostéochondrite, apparaît entre 5 et 12 ans selon sa localisation et concerne principalement les individus de sexe masculin, plus ou moins sportifs.
 Les symptômes dépendent de la variété d'ostéochondrite. Il peut s'agir :
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évolution est le plus souvent favorable en soulageant l'articulation de ses efforts et de la charge du poids du corps. Cependant la chirurgie est parfois indiquée pour réparer l'articulation atteinte. 
 </t>
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie peut se traiter par un arrêt sportif de quelques mois ainsi que par une « décharge » de sac de cours par exemple. La douleur peut être soulagée par un traitement médicamenteux. 
 En revanche si un corps étranger est détecté, le traitement chirurgical telle que l'ablation du fragment osseux ou de sa refixation peut être utilisé.
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ochondrite</t>
+          <t>Ostéochondrite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,9 +679,11 @@
           <t>Épidémiologie chez le cheval</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez le cheval, l'ostéochondrite est l'une des pathologies les plus communes chez le jeune animal en croissance[3]. La maladie touche 10 à 64 % des chevaux de sport et des trotteurs[4]. La composante génétique est très importante pour en déterminer l'héritabilité[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le cheval, l'ostéochondrite est l'une des pathologies les plus communes chez le jeune animal en croissance. La maladie touche 10 à 64 % des chevaux de sport et des trotteurs. La composante génétique est très importante pour en déterminer l'héritabilité.
 </t>
         </is>
       </c>
